--- a/excelize/testdata/SetCellValue_GetCellType.xlsx
+++ b/excelize/testdata/SetCellValue_GetCellType.xlsx
@@ -332,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -415,7 +415,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>45937.7385276667</v>
+        <v>45938.7113450941</v>
       </c>
     </row>
     <row r="17">
@@ -465,6 +465,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <f>=SUM(A1,A2,A3)</f>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/excelize/testdata/SetCellValue_GetCellType.xlsx
+++ b/excelize/testdata/SetCellValue_GetCellType.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>45938.7113450941</v>
+        <v>45938.7364057145</v>
       </c>
     </row>
     <row r="17">

--- a/excelize/testdata/SetCellValue_GetCellType.xlsx
+++ b/excelize/testdata/SetCellValue_GetCellType.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <v>45938.7364057145</v>
+        <v>45938.7395213382</v>
       </c>
     </row>
     <row r="17">
